--- a/biology/Botanique/Delonix_regia/Delonix_regia.xlsx
+++ b/biology/Botanique/Delonix_regia/Delonix_regia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delonix regia, le flamboyant, est une espèce d'arbre de la famille des Caesalpiniaceae selon la classification classique, ou des Fabaceae selon la classification phylogénétique.
 Sa floraison rouge est spectaculaire. Originaire de Madagascar, on le rencontre maintenant dans toute la zone intertropicale comme arbre ornemental.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre majestueux mesure en général entre cinq et huit mètres de haut mais il peut dépasser les quinze mètres de hauteur. 
 Quand l'arbre est jeune son tronc est lisse et clair.
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flamboyant nécessite un climat tropical ou subtropical (Zone USDA 10), mais peut tolérer la sécheresse et les conditions salées. Il n'aime pas les sols lourds argileux et préfère un sol sableux drainant enrichi en matière organique. L'arbre fleurit plus abondamment lorsqu'il est un peu au sec. 
 Il est très largement cultivé dans les Caraïbes, en Afrique et en Australie du Nord. On le trouve également en Nouvelle-Calédonie ou encore en Polynésie Française. Cet arbre a été introduit à la Réunion en 1840 par Claude Richard.
@@ -580,12 +596,14 @@
           <t>Propriétés et usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flamboyant a servi d'arbre d'ombrage dans les plantations de théiers et les fermes laitières, ainsi que le long des rues et dans les places publiques ou encore de haies remarquables par leur couleur vive. Mais il possède aussi des fleurs mellifères (qui sécrètent du nectar, recueilli par les abeilles et transformé en miel), un tronc fragile, d'une densité de 0,8 mais qui protège de l'humidité et des insectes et qui permet de fabriquer des constructions légères comme des pirogues.
 Il reste cependant très sensible aux termites. Le plus souvent, il sert de combustible, tout comme les gousses faciles à récolter. On extrait une gomme épaisse jaunâtre ou brun rougeâtre des graines, qui pourrait trouver une utilisation dans les industries textiles et alimentaires.
 L'écorce a des propriétés médicinales.
-Les graines servent parfois à faire des colliers[1].
+Les graines servent parfois à faire des colliers.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Poinciana regia Bojer ex Hook.
 Cette espèce était auparavant placée dans le genre Poinciana, du nom de Philippe de Longvilliers de Poincy, le gouverneur de Saint-Christophe (Saint-Kitts) au XVIIe siècle. C'est une légumineuse non nodulante
